--- a/Tools/Access2Justice.Tools.CsvImporter/SampleFiles/HI_Topics_Import_Template_V4.xlsx
+++ b/Tools/Access2Justice.Tools.CsvImporter/SampleFiles/HI_Topics_Import_Template_V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sobhad\Desktop\Clone-A2J\Access2Justice\Tools\Access2Justice.Tools.CsvImporter\SampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE81E4B3-9C8F-4381-9719-B70D390410FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF4A3B2-5099-407A-860B-990695F56FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{7FF4E7AB-070C-4B62-B5D3-E5EACB358978}"/>
   </bookViews>
@@ -269,13 +269,6 @@
     <t>Adoption | Guardianship | Power of Attorney | Guardian | Resource Caregiver | Foster | Adoptive| Foster Child | Foster Parent | Foster System | Child Welfare System| Child Welfare | Fostering |Fosterage | Taking in | Adopting | Adoption Process | Legal Guardianship | Legal Guardian | Ward | Legal Custody | Physical Custody |Primary Caretaker | Guardianship of a minor | Caretaker of a child | Agent | Attorney-in-fact | Custody of a child | Power of Attorney for Child Care and Custody | POA for Child | POA | Power of Attorney for a Minor | Medical Power of Attorney for Child | Temporary Delegation of Parental Authority | Temporary Power of Attorney for Minor | Grandparent Power of Attorney | Legal Authority</t>
   </si>
   <si>
-    <t>If you are caring for someone else’s child and_x000D_
-need to make decisions for that child, or if_x000D_
-someone is caring for your child and needs to_x000D_
-make decisions for your child, three common_x000D_
-options are an adoption; a guardianship; a power of attorney.</t>
-  </si>
-  <si>
     <t>Hawaii Adoption | Hawaii Foster and Adoption Guidelines | Guardianship - How it Works</t>
   </si>
   <si>
@@ -804,6 +797,13 @@
   </si>
   <si>
     <t>https://cs4892808efec24x447cx944.blob.core.windows.net/static-resource/assets/images/categories/veterans.svg</t>
+  </si>
+  <si>
+    <t>If you are caring for someone else’s child and
+need to make decisions for that child, or if
+someone is caring for your child and needs to
+make decisions for your child, three common
+options are an adoption; a guardianship; a power of attorney.</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF54890-159C-47AB-8FB4-F81095A02C0A}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="102" thickTop="1" x14ac:dyDescent="0.35">
@@ -1390,7 +1390,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1399,7 +1399,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
       <c r="L2" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
@@ -1410,13 +1410,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
@@ -1437,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="296.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1448,13 +1448,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1469,7 +1469,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="303" customHeight="1" x14ac:dyDescent="0.35">
@@ -1480,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1512,133 +1512,133 @@
         <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="220.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L8" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1647,24 +1647,24 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1673,24 +1673,24 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1699,24 +1699,24 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1725,24 +1725,24 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1751,20 +1751,20 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1773,24 +1773,24 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1799,22 +1799,22 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1823,22 +1823,22 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1847,22 +1847,22 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1871,20 +1871,20 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1893,22 +1893,22 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1917,22 +1917,22 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1941,22 +1941,22 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1965,22 +1965,22 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1989,22 +1989,22 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2013,20 +2013,20 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2035,22 +2035,22 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2059,22 +2059,22 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C28" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2083,22 +2083,22 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2107,22 +2107,22 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2131,22 +2131,22 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2155,20 +2155,20 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2177,22 +2177,22 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="C33" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2201,22 +2201,22 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="C34" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2225,22 +2225,22 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2249,22 +2249,22 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="C36" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2273,22 +2273,22 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2297,22 +2297,22 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2321,22 +2321,22 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2345,22 +2345,22 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="C40" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2369,20 +2369,20 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2391,22 +2391,22 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="C42" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2415,22 +2415,22 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2439,22 +2439,22 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2463,22 +2463,22 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2487,22 +2487,22 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="C46" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2511,22 +2511,22 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2535,22 +2535,22 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2559,20 +2559,20 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2581,22 +2581,22 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2605,22 +2605,22 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="C51" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2629,22 +2629,22 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="C52" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2653,20 +2653,20 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2675,22 +2675,22 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2699,22 +2699,22 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="C55" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2723,22 +2723,22 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="C56" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2747,22 +2747,22 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -2771,22 +2771,22 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2795,20 +2795,20 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2817,22 +2817,22 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="C60" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2841,22 +2841,22 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="C61" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2865,22 +2865,22 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="C62" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -2889,20 +2889,20 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -2911,22 +2911,22 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="C64" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2935,22 +2935,22 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="C65" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -2959,22 +2959,22 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="C66" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -2983,22 +2983,22 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="C67" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -3007,22 +3007,22 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="C68" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -3031,22 +3031,22 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="C69" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -3055,20 +3055,20 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -3077,22 +3077,22 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="C71" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -3101,22 +3101,22 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="C72" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -3125,7 +3125,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3158,15 +3158,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E7D4F9E02A40A44B19573CF3549EA08" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ace961a321deb82782cd5c0baf6e3ff0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82b34e2e-8e49-44a7-8df8-19c48343e702" xmlns:ns3="ae66a276-7bf3-42b9-ad7d-2d219e3e493c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d6053f4621972f75917b35bd6cb2e7c" ns2:_="" ns3:_="">
     <xsd:import namespace="82b34e2e-8e49-44a7-8df8-19c48343e702"/>
@@ -3375,6 +3366,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45AFD11D-619E-4789-9AB2-38DC61A617DB}">
   <ds:schemaRefs>
@@ -3385,14 +3385,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35901C47-32BC-43B4-8135-6D146A35A1F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F5455C9-468C-4570-88F6-97225150CCA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3409,4 +3401,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35901C47-32BC-43B4-8135-6D146A35A1F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>